--- a/searchClickResultQuery.xlsx
+++ b/searchClickResultQuery.xlsx
@@ -37,7 +37,7 @@
     <t>search_click_result_4</t>
   </si>
   <si>
-    <t>graph 2</t>
+    <t>graph 3</t>
   </si>
   <si>
     <t>search_click_result_3</t>
@@ -453,11 +453,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1806536556"/>
-        <c:axId val="1222689294"/>
+        <c:axId val="1569533244"/>
+        <c:axId val="1073372566"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1806536556"/>
+        <c:axId val="1569533244"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -509,10 +509,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1222689294"/>
+        <c:crossAx val="1073372566"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1222689294"/>
+        <c:axId val="1073372566"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -587,7 +587,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1806536556"/>
+        <c:crossAx val="1569533244"/>
         <c:crosses val="max"/>
       </c:valAx>
     </c:plotArea>
@@ -682,11 +682,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="69084637"/>
-        <c:axId val="649328663"/>
+        <c:axId val="1999430944"/>
+        <c:axId val="377088594"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69084637"/>
+        <c:axId val="1999430944"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -738,10 +738,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="649328663"/>
+        <c:crossAx val="377088594"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="649328663"/>
+        <c:axId val="377088594"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -816,7 +816,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69084637"/>
+        <c:crossAx val="1999430944"/>
         <c:crosses val="max"/>
       </c:valAx>
     </c:plotArea>
